--- a/acc record.xlsx
+++ b/acc record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PHD\pyKinectAzure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20869CEC-BFF0-4EDB-B187-1FAE0CB5328D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E147612-B4B6-4D17-85E4-47AA67DAF9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10300" xr2:uid="{6FE18F1B-19A3-4EAD-A740-58575747C977}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Model</t>
   </si>
@@ -90,6 +90,21 @@
   </si>
   <si>
     <t>stack 32</t>
+  </si>
+  <si>
+    <t>action epoch 32</t>
+  </si>
+  <si>
+    <t>identity 64</t>
+  </si>
+  <si>
+    <t>stack 16</t>
+  </si>
+  <si>
+    <t>dgcnn</t>
+  </si>
+  <si>
+    <t>stack 48 maxpoint 2048</t>
   </si>
 </sst>
 </file>
@@ -471,14 +486,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED18EB3-C69F-4E4B-AC9C-F79D5DC5F171}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.875" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
@@ -486,11 +502,11 @@
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -515,14 +531,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
         <v>3.27</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
@@ -538,12 +554,12 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="3"/>
       <c r="D3" t="s">
         <v>6</v>
       </c>
@@ -556,13 +572,22 @@
       <c r="G3">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="J3">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="K3">
+        <v>4.0750000000000002</v>
+      </c>
+      <c r="L3">
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
@@ -577,11 +602,22 @@
       <c r="G4">
         <v>1.92</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
+      <c r="J4">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="K4">
+        <v>2.4279999999999999</v>
+      </c>
+      <c r="L4">
+        <v>0.77700000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="D5" t="s">
         <v>6</v>
       </c>
@@ -595,10 +631,12 @@
         <v>8.91</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
@@ -614,10 +652,10 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -631,21 +669,57 @@
         <v>3.37</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
       <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>9.3899999999999997E-2</v>
+      </c>
+      <c r="F11">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="G11">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
         <v>6</v>
       </c>
     </row>

--- a/acc record.xlsx
+++ b/acc record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PHD\pyKinectAzure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E147612-B4B6-4D17-85E4-47AA67DAF9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD7415C-B4A1-4507-AE3B-85318B39517C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10300" xr2:uid="{6FE18F1B-19A3-4EAD-A740-58575747C977}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6FE18F1B-19A3-4EAD-A740-58575747C977}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,19 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Train loss</t>
-  </si>
-  <si>
-    <t>Val loss</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>action</t>
   </si>
@@ -56,62 +44,80 @@
     <t>pointnet</t>
   </si>
   <si>
-    <t>identity</t>
-  </si>
-  <si>
     <t>pointtransformer</t>
   </si>
   <si>
-    <t>Test loss</t>
-  </si>
-  <si>
-    <t>Test ACC</t>
-  </si>
-  <si>
-    <t>Val ACC</t>
-  </si>
-  <si>
-    <t>DATA</t>
-  </si>
-  <si>
-    <t>DGCNN</t>
-  </si>
-  <si>
-    <t>PointMLP</t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>epoch 64</t>
-  </si>
-  <si>
-    <t>batch 32</t>
-  </si>
-  <si>
-    <t>stack 32</t>
-  </si>
-  <si>
-    <t>action epoch 32</t>
-  </si>
-  <si>
-    <t>identity 64</t>
-  </si>
-  <si>
-    <t>stack 16</t>
-  </si>
-  <si>
     <t>dgcnn</t>
   </si>
   <si>
-    <t>stack 48 maxpoint 2048</t>
+    <t>keypoint</t>
+  </si>
+  <si>
+    <t>kp</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>pointmlp</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>iden</t>
+  </si>
+  <si>
+    <t>train loss</t>
+  </si>
+  <si>
+    <t>val loss</t>
+  </si>
+  <si>
+    <t>val acc</t>
+  </si>
+  <si>
+    <t>test loss</t>
+  </si>
+  <si>
+    <t>test acc</t>
+  </si>
+  <si>
+    <t>test TOP3 acc</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>kp(dm)</t>
+  </si>
+  <si>
+    <t>super-parameter</t>
+  </si>
+  <si>
+    <t>stack=8</t>
+  </si>
+  <si>
+    <t>max_point=512</t>
+  </si>
+  <si>
+    <t>stack=32</t>
+  </si>
+  <si>
+    <t>max_point=2048</t>
+  </si>
+  <si>
+    <t>max_point=1024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,13 +126,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -141,16 +166,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -158,6 +201,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9FFF9F"/>
+      <color rgb="FFFBF3F9"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -486,250 +535,337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED18EB3-C69F-4E4B-AC9C-F79D5DC5F171}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C10" sqref="C10:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="16.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9" style="5"/>
+    <col min="6" max="6" width="11.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="2.875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="8.75" style="5" customWidth="1"/>
+    <col min="11" max="11" width="13" style="5" customWidth="1"/>
+    <col min="12" max="12" width="3.125" style="7" customWidth="1"/>
+    <col min="13" max="15" width="9" style="5"/>
+    <col min="16" max="16" width="3.25" style="7" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="8">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E3" s="5">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1.77</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9"/>
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.505</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.56</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.48899999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9"/>
+      <c r="B6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.9188000000000001</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.41880000000000001</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9"/>
+      <c r="B8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.68320000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="8">
+        <v>4.17</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9"/>
+      <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9"/>
+      <c r="B13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>3.27</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>0.11</v>
-      </c>
-      <c r="F2">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="G2">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="15" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9"/>
+      <c r="B15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="F3">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="G3">
-        <v>4.5</v>
-      </c>
-      <c r="J3">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="K3">
-        <v>4.0750000000000002</v>
-      </c>
-      <c r="L3">
-        <v>0.30499999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>0.11</v>
-      </c>
-      <c r="F4">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="G4">
-        <v>1.92</v>
-      </c>
-      <c r="J4">
-        <v>0.57699999999999996</v>
-      </c>
-      <c r="K4">
-        <v>2.4279999999999999</v>
-      </c>
-      <c r="L4">
-        <v>0.77700000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>3.6299999999999999E-2</v>
-      </c>
-      <c r="F5">
-        <v>0.157</v>
-      </c>
-      <c r="G5">
-        <v>8.91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>0.11</v>
-      </c>
-      <c r="F6">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="G6">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>2.27</v>
-      </c>
-      <c r="F7">
-        <v>0.115</v>
-      </c>
-      <c r="G7">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>9.3899999999999997E-2</v>
-      </c>
-      <c r="F11">
-        <v>2.1700000000000001E-2</v>
-      </c>
-      <c r="G11">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-    </row>
+    </row>
+    <row r="16" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A2:A9"/>
+  <mergeCells count="13">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:XFD9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
